--- a/output/data_assets.xlsx
+++ b/output/data_assets.xlsx
@@ -18,16 +18,16 @@
     <t xml:space="preserve">Dates</t>
   </si>
   <si>
-    <t xml:space="preserve">Momentum Global</t>
+    <t xml:space="preserve">World Momentum</t>
   </si>
   <si>
-    <t xml:space="preserve">Consumer Staples Global</t>
+    <t xml:space="preserve">US Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Healthcare Global</t>
+    <t xml:space="preserve">World Low Volatility</t>
   </si>
   <si>
-    <t xml:space="preserve">Small Cap Global</t>
+    <t xml:space="preserve">World Healthcare</t>
   </si>
   <si>
     <t xml:space="preserve">EU Gov bonds 7-10y</t>
@@ -414,13 +414,13 @@
         <v>82.0749969482422</v>
       </c>
       <c r="C2" t="n">
-        <v>49.1399993896484</v>
+        <v>14.5679998397827</v>
       </c>
       <c r="D2" t="n">
+        <v>68.0999984741211</v>
+      </c>
+      <c r="E2" t="n">
         <v>60.3699989318848</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.85900020599365</v>
       </c>
       <c r="F2" t="n">
         <v>190.339996337891</v>
@@ -443,13 +443,13 @@
         <v>82.3050003051758</v>
       </c>
       <c r="C3" t="n">
-        <v>49.2949981689453</v>
+        <v>14.5939998626709</v>
       </c>
       <c r="D3" t="n">
+        <v>69.6699981689453</v>
+      </c>
+      <c r="E3" t="n">
         <v>62.7700004577637</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.04599952697754</v>
       </c>
       <c r="F3" t="n">
         <v>192.059997558594</v>
@@ -472,13 +472,13 @@
         <v>79.1699981689453</v>
       </c>
       <c r="C4" t="n">
-        <v>48.2449989318848</v>
+        <v>13.5579996109009</v>
       </c>
       <c r="D4" t="n">
+        <v>67.4300003051758</v>
+      </c>
+      <c r="E4" t="n">
         <v>63.5299987792969</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.57100009918213</v>
       </c>
       <c r="F4" t="n">
         <v>187.160202026367</v>
@@ -501,13 +501,13 @@
         <v>79.5299987792969</v>
       </c>
       <c r="C5" t="n">
-        <v>50.4550018310547</v>
+        <v>13.3140001296997</v>
       </c>
       <c r="D5" t="n">
+        <v>68.7799987792969</v>
+      </c>
+      <c r="E5" t="n">
         <v>66.1900024414062</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.7519998550415</v>
       </c>
       <c r="F5" t="n">
         <v>190.207229614258</v>
@@ -530,13 +530,13 @@
         <v>77.8499984741211</v>
       </c>
       <c r="C6" t="n">
-        <v>49.8400001525879</v>
+        <v>13.2040004730225</v>
       </c>
       <c r="D6" t="n">
+        <v>68.4199981689453</v>
+      </c>
+      <c r="E6" t="n">
         <v>68.1100006103516</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.56899976730347</v>
       </c>
       <c r="F6" t="n">
         <v>187.179931640625</v>
@@ -559,13 +559,13 @@
         <v>76.5800018310547</v>
       </c>
       <c r="C7" t="n">
-        <v>47.5099983215332</v>
+        <v>13.1400003433228</v>
       </c>
       <c r="D7" t="n">
+        <v>65.6500015258789</v>
+      </c>
+      <c r="E7" t="n">
         <v>65.1999969482422</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.58500003814697</v>
       </c>
       <c r="F7" t="n">
         <v>186.726318359375</v>
@@ -588,13 +588,13 @@
         <v>78.2399978637695</v>
       </c>
       <c r="C8" t="n">
-        <v>46.3400001525879</v>
+        <v>13.28600025177</v>
       </c>
       <c r="D8" t="n">
+        <v>62.7700004577637</v>
+      </c>
+      <c r="E8" t="n">
         <v>63.0999984741211</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.08900022506714</v>
       </c>
       <c r="F8" t="n">
         <v>182.032531738281</v>
@@ -617,13 +617,13 @@
         <v>74.1999969482422</v>
       </c>
       <c r="C9" t="n">
-        <v>46.5</v>
+        <v>12.4739999771118</v>
       </c>
       <c r="D9" t="n">
+        <v>61.7599983215332</v>
+      </c>
+      <c r="E9" t="n">
         <v>61.4599990844727</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.16699981689453</v>
       </c>
       <c r="F9" t="n">
         <v>181.549331665039</v>
@@ -646,13 +646,13 @@
         <v>71.4400024414062</v>
       </c>
       <c r="C10" t="n">
-        <v>45.5099983215332</v>
+        <v>12.253999710083</v>
       </c>
       <c r="D10" t="n">
+        <v>60.9199981689453</v>
+      </c>
+      <c r="E10" t="n">
         <v>60.0999984741211</v>
-      </c>
-      <c r="E10" t="n">
-        <v>6.94999980926514</v>
       </c>
       <c r="F10" t="n">
         <v>181.960708618164</v>
@@ -675,13 +675,13 @@
         <v>74.0400009155273</v>
       </c>
       <c r="C11" t="n">
-        <v>46.2200012207031</v>
+        <v>12.5640001296997</v>
       </c>
       <c r="D11" t="n">
+        <v>63.1100006103516</v>
+      </c>
+      <c r="E11" t="n">
         <v>62.7799987792969</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.31599998474121</v>
       </c>
       <c r="F11" t="n">
         <v>184.947998046875</v>
@@ -704,13 +704,13 @@
         <v>70.5</v>
       </c>
       <c r="C12" t="n">
-        <v>45.1100006103516</v>
+        <v>12.2080001831055</v>
       </c>
       <c r="D12" t="n">
+        <v>61.5900001525879</v>
+      </c>
+      <c r="E12" t="n">
         <v>61.2700004577637</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.00699996948242</v>
       </c>
       <c r="F12" t="n">
         <v>182.875381469727</v>
@@ -733,13 +733,13 @@
         <v>65.0400009155273</v>
       </c>
       <c r="C13" t="n">
-        <v>45.0800018310547</v>
+        <v>11.539999961853</v>
       </c>
       <c r="D13" t="n">
+        <v>61.2700004577637</v>
+      </c>
+      <c r="E13" t="n">
         <v>60.060001373291</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.86199998855591</v>
       </c>
       <c r="F13" t="n">
         <v>185.541534423828</v>
@@ -762,13 +762,13 @@
         <v>61.7799987792969</v>
       </c>
       <c r="C14" t="n">
-        <v>44.6549987792969</v>
+        <v>11.0260000228882</v>
       </c>
       <c r="D14" t="n">
+        <v>59.6500015258789</v>
+      </c>
+      <c r="E14" t="n">
         <v>58.2999992370605</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.04699993133545</v>
       </c>
       <c r="F14" t="n">
         <v>186.534057617188</v>
@@ -791,13 +791,13 @@
         <v>58.7999992370605</v>
       </c>
       <c r="C15" t="n">
-        <v>43.3400001525879</v>
+        <v>10.5900001525879</v>
       </c>
       <c r="D15" t="n">
+        <v>58.0699996948242</v>
+      </c>
+      <c r="E15" t="n">
         <v>55.689998626709</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6.37650012969971</v>
       </c>
       <c r="F15" t="n">
         <v>179.382141113281</v>
@@ -820,19 +820,19 @@
         <v>53.939998626709</v>
       </c>
       <c r="C16" t="n">
-        <v>41.6399993896484</v>
+        <v>10.076000213623</v>
       </c>
       <c r="D16" t="n">
+        <v>55.0099983215332</v>
+      </c>
+      <c r="E16" t="n">
         <v>52.5849990844727</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.84250020980835</v>
       </c>
       <c r="F16" t="n">
         <v>173.572418212891</v>
       </c>
       <c r="G16" t="n">
-        <v>4.6151556968689</v>
+        <v>4.61515617370605</v>
       </c>
       <c r="H16" t="n">
         <v>4.71053552627563</v>
@@ -849,19 +849,19 @@
         <v>55.1800003051758</v>
       </c>
       <c r="C17" t="n">
-        <v>42.5200004577637</v>
+        <v>10.3140001296997</v>
       </c>
       <c r="D17" t="n">
+        <v>55.9799995422363</v>
+      </c>
+      <c r="E17" t="n">
         <v>55.3050003051758</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.25950002670288</v>
       </c>
       <c r="F17" t="n">
         <v>172.332763671875</v>
       </c>
       <c r="G17" t="n">
-        <v>4.59901762008667</v>
+        <v>4.59901714324951</v>
       </c>
       <c r="H17" t="n">
         <v>4.68950653076172</v>
@@ -878,19 +878,19 @@
         <v>57.4749984741211</v>
       </c>
       <c r="C18" t="n">
-        <v>44.7249984741211</v>
+        <v>10.5699996948242</v>
       </c>
       <c r="D18" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E18" t="n">
         <v>57.2900009155273</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.59299993515015</v>
       </c>
       <c r="F18" t="n">
         <v>177.8583984375</v>
       </c>
       <c r="G18" t="n">
-        <v>4.60036325454712</v>
+        <v>4.60036277770996</v>
       </c>
       <c r="H18" t="n">
         <v>4.67031574249268</v>
@@ -907,13 +907,13 @@
         <v>58.1100006103516</v>
       </c>
       <c r="C19" t="n">
-        <v>46.1699981689453</v>
+        <v>10.4079999923706</v>
       </c>
       <c r="D19" t="n">
+        <v>58.25</v>
+      </c>
+      <c r="E19" t="n">
         <v>57.3050003051758</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.82350015640259</v>
       </c>
       <c r="F19" t="n">
         <v>177.060775756836</v>
@@ -936,13 +936,13 @@
         <v>56.7400016784668</v>
       </c>
       <c r="C20" t="n">
-        <v>45.2900009155273</v>
+        <v>10.1180000305176</v>
       </c>
       <c r="D20" t="n">
+        <v>57.4000015258789</v>
+      </c>
+      <c r="E20" t="n">
         <v>56.5699996948242</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.5149998664856</v>
       </c>
       <c r="F20" t="n">
         <v>177.473999023438</v>
@@ -965,13 +965,13 @@
         <v>53.2700004577637</v>
       </c>
       <c r="C21" t="n">
-        <v>43.9199981689453</v>
+        <v>9.72799968719482</v>
       </c>
       <c r="D21" t="n">
+        <v>55.689998626709</v>
+      </c>
+      <c r="E21" t="n">
         <v>54.5950012207031</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6.08650016784668</v>
       </c>
       <c r="F21" t="n">
         <v>178.290832519531</v>
@@ -994,19 +994,19 @@
         <v>56.0349998474121</v>
       </c>
       <c r="C22" t="n">
-        <v>47.0050010681152</v>
+        <v>9.3100004196167</v>
       </c>
       <c r="D22" t="n">
+        <v>58.1199989318848</v>
+      </c>
+      <c r="E22" t="n">
         <v>57.1749992370605</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6.30000019073486</v>
       </c>
       <c r="F22" t="n">
         <v>177.097808837891</v>
       </c>
       <c r="G22" t="n">
-        <v>4.61181640625</v>
+        <v>4.61181592941284</v>
       </c>
       <c r="H22" t="n">
         <v>4.59550333023071</v>
@@ -1023,16 +1023,16 @@
         <v>54.5</v>
       </c>
       <c r="C23" t="n">
-        <v>45.1599998474121</v>
+        <v>9.28400039672852</v>
       </c>
       <c r="D23" t="n">
+        <v>56.5400009155273</v>
+      </c>
+      <c r="E23" t="n">
         <v>55.2050018310547</v>
       </c>
-      <c r="E23" t="n">
-        <v>6.30200004577637</v>
-      </c>
       <c r="F23" t="n">
-        <v>177.307495117188</v>
+        <v>177.307510375977</v>
       </c>
       <c r="G23" t="n">
         <v>4.60383129119873</v>
@@ -1052,22 +1052,22 @@
         <v>54.1399993896484</v>
       </c>
       <c r="C24" t="n">
-        <v>43.1599998474121</v>
+        <v>9.17899990081787</v>
       </c>
       <c r="D24" t="n">
+        <v>54.5999984741211</v>
+      </c>
+      <c r="E24" t="n">
         <v>53.6399993896484</v>
       </c>
-      <c r="E24" t="n">
-        <v>6.48950004577637</v>
-      </c>
       <c r="F24" t="n">
-        <v>172.198547363281</v>
+        <v>172.19856262207</v>
       </c>
       <c r="G24" t="n">
-        <v>4.51599597930908</v>
+        <v>4.51599550247192</v>
       </c>
       <c r="H24" t="n">
-        <v>4.55851793289185</v>
+        <v>4.558518409729</v>
       </c>
       <c r="I24" t="n">
         <v>149.520004272461</v>
@@ -1081,19 +1081,19 @@
         <v>55.6100006103516</v>
       </c>
       <c r="C25" t="n">
-        <v>43.8800010681152</v>
+        <v>9.10900020599365</v>
       </c>
       <c r="D25" t="n">
+        <v>56.2000007629395</v>
+      </c>
+      <c r="E25" t="n">
         <v>55.5</v>
       </c>
-      <c r="E25" t="n">
-        <v>6.56199979782104</v>
-      </c>
       <c r="F25" t="n">
-        <v>176.449630737305</v>
+        <v>176.449645996094</v>
       </c>
       <c r="G25" t="n">
-        <v>4.52930355072021</v>
+        <v>4.52930402755737</v>
       </c>
       <c r="H25" t="n">
         <v>4.54325389862061</v>
@@ -1110,22 +1110,22 @@
         <v>55.1800003051758</v>
       </c>
       <c r="C26" t="n">
-        <v>43.7949981689453</v>
+        <v>8.71199989318848</v>
       </c>
       <c r="D26" t="n">
+        <v>55.5999984741211</v>
+      </c>
+      <c r="E26" t="n">
         <v>56.3050003051758</v>
       </c>
-      <c r="E26" t="n">
-        <v>6.01999998092651</v>
-      </c>
       <c r="F26" t="n">
-        <v>171.073791503906</v>
+        <v>171.073806762695</v>
       </c>
       <c r="G26" t="n">
-        <v>4.51244688034058</v>
+        <v>4.51244640350342</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5333776473999</v>
+        <v>4.53337717056274</v>
       </c>
       <c r="I26" t="n">
         <v>149.520004272461</v>
@@ -1139,19 +1139,19 @@
         <v>56.0400009155273</v>
       </c>
       <c r="C27" t="n">
-        <v>43.8600006103516</v>
+        <v>9.2819995880127</v>
       </c>
       <c r="D27" t="n">
+        <v>55.8199996948242</v>
+      </c>
+      <c r="E27" t="n">
         <v>55.9099998474121</v>
       </c>
-      <c r="E27" t="n">
-        <v>6.14400005340576</v>
-      </c>
       <c r="F27" t="n">
-        <v>180.386199951172</v>
+        <v>180.386215209961</v>
       </c>
       <c r="G27" t="n">
-        <v>4.49115324020386</v>
+        <v>4.4911527633667</v>
       </c>
       <c r="H27" t="n">
         <v>4.51182842254639</v>
@@ -1168,13 +1168,13 @@
         <v>53.7000007629395</v>
       </c>
       <c r="C28" t="n">
-        <v>41.4199981689453</v>
+        <v>9.27700042724609</v>
       </c>
       <c r="D28" t="n">
+        <v>53.3600006103516</v>
+      </c>
+      <c r="E28" t="n">
         <v>53.8899993896484</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5.8914999961853</v>
       </c>
       <c r="F28" t="n">
         <v>176.567504882812</v>
@@ -1197,19 +1197,19 @@
         <v>49.4500007629395</v>
       </c>
       <c r="C29" t="n">
-        <v>39.5</v>
+        <v>8.81700038909912</v>
       </c>
       <c r="D29" t="n">
+        <v>51.0800018310547</v>
+      </c>
+      <c r="E29" t="n">
         <v>50.5400009155273</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5.5310001373291</v>
       </c>
       <c r="F29" t="n">
         <v>175.558441162109</v>
       </c>
       <c r="G29" t="n">
-        <v>4.45975255966187</v>
+        <v>4.45975208282471</v>
       </c>
       <c r="H29" t="n">
         <v>4.49252414703369</v>
@@ -1226,22 +1226,22 @@
         <v>53.0800018310547</v>
       </c>
       <c r="C30" t="n">
-        <v>42.5900001525879</v>
+        <v>9.39099979400635</v>
       </c>
       <c r="D30" t="n">
+        <v>54.3899993896484</v>
+      </c>
+      <c r="E30" t="n">
         <v>52.0400009155273</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.08150005340576</v>
       </c>
       <c r="F30" t="n">
         <v>184.002212524414</v>
       </c>
       <c r="G30" t="n">
-        <v>4.59819316864014</v>
+        <v>4.59819269180298</v>
       </c>
       <c r="H30" t="n">
-        <v>4.48767328262329</v>
+        <v>4.48767375946045</v>
       </c>
       <c r="I30" t="n">
         <v>149.520004272461</v>
@@ -1255,22 +1255,22 @@
         <v>53.9199981689453</v>
       </c>
       <c r="C31" t="n">
-        <v>43.5550003051758</v>
+        <v>9.59700012207031</v>
       </c>
       <c r="D31" t="n">
+        <v>55.6699981689453</v>
+      </c>
+      <c r="E31" t="n">
         <v>54.8650016784668</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6.24749994277954</v>
       </c>
       <c r="F31" t="n">
         <v>195.349472045898</v>
       </c>
       <c r="G31" t="n">
-        <v>4.65215349197388</v>
+        <v>4.65215444564819</v>
       </c>
       <c r="H31" t="n">
-        <v>4.48230981826782</v>
+        <v>4.48230934143066</v>
       </c>
       <c r="I31" t="n">
         <v>149.520004272461</v>
@@ -1284,13 +1284,13 @@
         <v>51.7799987792969</v>
       </c>
       <c r="C32" t="n">
-        <v>41.8400001525879</v>
+        <v>8.64999961853027</v>
       </c>
       <c r="D32" t="n">
+        <v>53.8899993896484</v>
+      </c>
+      <c r="E32" t="n">
         <v>53.2249984741211</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5.75250005722046</v>
       </c>
       <c r="F32" t="n">
         <v>186.686737060547</v>
@@ -1313,19 +1313,19 @@
         <v>56.0200004577637</v>
       </c>
       <c r="C33" t="n">
-        <v>43.3499984741211</v>
+        <v>9.26399993896484</v>
       </c>
       <c r="D33" t="n">
+        <v>56.2200012207031</v>
+      </c>
+      <c r="E33" t="n">
         <v>55.0250015258789</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6.37099981307983</v>
       </c>
       <c r="F33" t="n">
         <v>190.247024536133</v>
       </c>
       <c r="G33" t="n">
-        <v>4.64242362976074</v>
+        <v>4.6424241065979</v>
       </c>
       <c r="H33" t="n">
         <v>4.48365068435669</v>
@@ -1342,22 +1342,22 @@
         <v>57.4500007629395</v>
       </c>
       <c r="C34" t="n">
-        <v>45.5499992370605</v>
+        <v>9.70699977874756</v>
       </c>
       <c r="D34" t="n">
+        <v>57.5800018310547</v>
+      </c>
+      <c r="E34" t="n">
         <v>55.3400001525879</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6.49100017547607</v>
       </c>
       <c r="F34" t="n">
         <v>193.312286376953</v>
       </c>
       <c r="G34" t="n">
-        <v>4.63514852523804</v>
+        <v>4.6351490020752</v>
       </c>
       <c r="H34" t="n">
-        <v>4.48007488250732</v>
+        <v>4.48007440567017</v>
       </c>
       <c r="I34" t="n">
         <v>149.520004272461</v>
@@ -1371,22 +1371,22 @@
         <v>64.0899963378906</v>
       </c>
       <c r="C35" t="n">
-        <v>44.939998626709</v>
+        <v>9.93599987030029</v>
       </c>
       <c r="D35" t="n">
+        <v>60.0400009155273</v>
+      </c>
+      <c r="E35" t="n">
         <v>58.0550003051758</v>
       </c>
-      <c r="E35" t="n">
-        <v>6.97650003433228</v>
-      </c>
       <c r="F35" t="n">
-        <v>201.099212646484</v>
+        <v>201.099227905273</v>
       </c>
       <c r="G35" t="n">
-        <v>4.63780069351196</v>
+        <v>4.63780117034912</v>
       </c>
       <c r="H35" t="n">
-        <v>4.48007488250732</v>
+        <v>4.48007440567017</v>
       </c>
       <c r="I35" t="n">
         <v>149.520004272461</v>
@@ -1400,19 +1400,19 @@
         <v>60.7099990844727</v>
       </c>
       <c r="C36" t="n">
-        <v>44.7949981689453</v>
+        <v>9.34500026702881</v>
       </c>
       <c r="D36" t="n">
+        <v>57.2099990844727</v>
+      </c>
+      <c r="E36" t="n">
         <v>55.0200004577637</v>
       </c>
-      <c r="E36" t="n">
-        <v>6.9060001373291</v>
-      </c>
       <c r="F36" t="n">
-        <v>207.286895751953</v>
+        <v>207.286880493164</v>
       </c>
       <c r="G36" t="n">
-        <v>4.65194940567017</v>
+        <v>4.65194845199585</v>
       </c>
       <c r="H36" t="n">
         <v>4.48186302185059</v>
@@ -1429,16 +1429,16 @@
         <v>61.5499992370605</v>
       </c>
       <c r="C37" t="n">
-        <v>44.810001373291</v>
+        <v>9.61999988555908</v>
       </c>
       <c r="D37" t="n">
+        <v>57.7799987792969</v>
+      </c>
+      <c r="E37" t="n">
         <v>54.9099998474121</v>
       </c>
-      <c r="E37" t="n">
-        <v>6.79400014877319</v>
-      </c>
       <c r="F37" t="n">
-        <v>211.29460144043</v>
+        <v>211.294616699219</v>
       </c>
       <c r="G37" t="n">
         <v>4.61039018630981</v>
@@ -1452,25 +1452,25 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B38" t="n">
-        <v>67.2699966430664</v>
+        <v>67.7200012207031</v>
       </c>
       <c r="C38" t="n">
-        <v>46.2150001525879</v>
+        <v>10.4340000152588</v>
       </c>
       <c r="D38" t="n">
-        <v>59.6150016784668</v>
+        <v>61.6500015258789</v>
       </c>
       <c r="E38" t="n">
-        <v>7.39699983596802</v>
+        <v>59.814998626709</v>
       </c>
       <c r="F38" t="n">
-        <v>214.607376098633</v>
+        <v>214.112350463867</v>
       </c>
       <c r="G38" t="n">
-        <v>4.6395697593689</v>
+        <v>4.64045429229736</v>
       </c>
       <c r="H38" t="n">
         <v>4.48454475402832</v>
@@ -1487,19 +1487,19 @@
         <v>66.4400024414062</v>
       </c>
       <c r="C39" t="n">
-        <v>43.2099990844727</v>
+        <v>10.1099996566772</v>
       </c>
       <c r="D39" t="n">
+        <v>58.5299987792969</v>
+      </c>
+      <c r="E39" t="n">
         <v>55.7849998474121</v>
       </c>
-      <c r="E39" t="n">
-        <v>7.17199993133545</v>
-      </c>
       <c r="F39" t="n">
-        <v>217.339462280273</v>
+        <v>217.339477539062</v>
       </c>
       <c r="G39" t="n">
-        <v>4.62542152404785</v>
+        <v>4.62542200088501</v>
       </c>
       <c r="H39" t="n">
         <v>4.48543834686279</v>
@@ -1516,16 +1516,16 @@
         <v>68.4300003051758</v>
       </c>
       <c r="C40" t="n">
-        <v>43.8499984741211</v>
+        <v>9.86200046539307</v>
       </c>
       <c r="D40" t="n">
+        <v>59.4000015258789</v>
+      </c>
+      <c r="E40" t="n">
         <v>57.1650009155273</v>
       </c>
-      <c r="E40" t="n">
-        <v>7.53000020980835</v>
-      </c>
       <c r="F40" t="n">
-        <v>213.065231323242</v>
+        <v>213.065216064453</v>
       </c>
       <c r="G40" t="n">
         <v>4.60950565338135</v>
@@ -1545,19 +1545,19 @@
         <v>64.0699996948242</v>
       </c>
       <c r="C41" t="n">
-        <v>42.5999984741211</v>
+        <v>9.24400043487549</v>
       </c>
       <c r="D41" t="n">
+        <v>57.7700004577637</v>
+      </c>
+      <c r="E41" t="n">
         <v>55.6300010681152</v>
-      </c>
-      <c r="E41" t="n">
-        <v>7.28800010681152</v>
       </c>
       <c r="F41" t="n">
         <v>216.063858032227</v>
       </c>
       <c r="G41" t="n">
-        <v>4.58386373519897</v>
+        <v>4.58386325836182</v>
       </c>
       <c r="H41" t="n">
         <v>4.48543834686279</v>
@@ -1574,16 +1574,16 @@
         <v>66.2200012207031</v>
       </c>
       <c r="C42" t="n">
-        <v>44.1199989318848</v>
+        <v>9.6230001449585</v>
       </c>
       <c r="D42" t="n">
+        <v>60.3899993896484</v>
+      </c>
+      <c r="E42" t="n">
         <v>58.2700004577637</v>
       </c>
-      <c r="E42" t="n">
-        <v>7.45599985122681</v>
-      </c>
       <c r="F42" t="n">
-        <v>218.929229736328</v>
+        <v>218.929214477539</v>
       </c>
       <c r="G42" t="n">
         <v>4.59182119369507</v>
@@ -1603,19 +1603,19 @@
         <v>64.120002746582</v>
       </c>
       <c r="C43" t="n">
-        <v>43.9000015258789</v>
+        <v>9.29199981689453</v>
       </c>
       <c r="D43" t="n">
+        <v>59.3600006103516</v>
+      </c>
+      <c r="E43" t="n">
         <v>56.7299995422363</v>
-      </c>
-      <c r="E43" t="n">
-        <v>7.29650020599365</v>
       </c>
       <c r="F43" t="n">
         <v>220.290512084961</v>
       </c>
       <c r="G43" t="n">
-        <v>4.58474731445312</v>
+        <v>4.58474779129028</v>
       </c>
       <c r="H43" t="n">
         <v>4.48597431182861</v>
@@ -1632,13 +1632,13 @@
         <v>63.0299987792969</v>
       </c>
       <c r="C44" t="n">
-        <v>43.1949996948242</v>
+        <v>8.99499988555908</v>
       </c>
       <c r="D44" t="n">
+        <v>57.6699981689453</v>
+      </c>
+      <c r="E44" t="n">
         <v>54.6949996948242</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7.33850002288818</v>
       </c>
       <c r="F44" t="n">
         <v>216.387512207031</v>
@@ -1661,19 +1661,19 @@
         <v>62.435001373291</v>
       </c>
       <c r="C45" t="n">
-        <v>43.5349998474121</v>
+        <v>8.48999977111816</v>
       </c>
       <c r="D45" t="n">
+        <v>57.3899993896484</v>
+      </c>
+      <c r="E45" t="n">
         <v>53.3699989318848</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7.33500003814697</v>
       </c>
       <c r="F45" t="n">
         <v>215.378448486328</v>
       </c>
       <c r="G45" t="n">
-        <v>4.52462005615234</v>
+        <v>4.52461957931519</v>
       </c>
       <c r="H45" t="n">
         <v>4.48597431182861</v>
@@ -1690,22 +1690,22 @@
         <v>63.2099990844727</v>
       </c>
       <c r="C46" t="n">
-        <v>41.9949989318848</v>
+        <v>8.49499988555908</v>
       </c>
       <c r="D46" t="n">
+        <v>56.0900001525879</v>
+      </c>
+      <c r="E46" t="n">
         <v>52</v>
       </c>
-      <c r="E46" t="n">
-        <v>7.29449987411499</v>
-      </c>
       <c r="F46" t="n">
-        <v>215.454605102539</v>
+        <v>215.454620361328</v>
       </c>
       <c r="G46" t="n">
         <v>4.49166584014893</v>
       </c>
       <c r="H46" t="n">
-        <v>4.48642158508301</v>
+        <v>4.48642063140869</v>
       </c>
       <c r="I46" t="n">
         <v>142.190002441406</v>
@@ -1719,13 +1719,13 @@
         <v>59.1199989318848</v>
       </c>
       <c r="C47" t="n">
-        <v>41.0149993896484</v>
+        <v>8.32199954986572</v>
       </c>
       <c r="D47" t="n">
+        <v>54.6699981689453</v>
+      </c>
+      <c r="E47" t="n">
         <v>50.2000007629395</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7.00099992752075</v>
       </c>
       <c r="F47" t="n">
         <v>217.625061035156</v>
@@ -1748,13 +1748,13 @@
         <v>59.2299995422363</v>
       </c>
       <c r="C48" t="n">
-        <v>38.3400001525879</v>
+        <v>7.7350001335144</v>
       </c>
       <c r="D48" t="n">
+        <v>52.2099990844727</v>
+      </c>
+      <c r="E48" t="n">
         <v>49.0699996948242</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6.87900018692017</v>
       </c>
       <c r="F48" t="n">
         <v>216.397048950195</v>
@@ -1763,7 +1763,7 @@
         <v>4.41546869277954</v>
       </c>
       <c r="H48" t="n">
-        <v>4.48561763763428</v>
+        <v>4.4856162071228</v>
       </c>
       <c r="I48" t="n">
         <v>137.899993896484</v>
@@ -1777,19 +1777,19 @@
         <v>59.5499992370605</v>
       </c>
       <c r="C49" t="n">
-        <v>39.4799995422363</v>
+        <v>7.45699977874756</v>
       </c>
       <c r="D49" t="n">
+        <v>53</v>
+      </c>
+      <c r="E49" t="n">
         <v>50.3499984741211</v>
-      </c>
-      <c r="E49" t="n">
-        <v>6.5939998626709</v>
       </c>
       <c r="F49" t="n">
         <v>220.56657409668</v>
       </c>
       <c r="G49" t="n">
-        <v>4.42912244796753</v>
+        <v>4.42912292480469</v>
       </c>
       <c r="H49" t="n">
         <v>4.4860634803772</v>
@@ -1800,31 +1800,31 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B50" t="n">
-        <v>58.939998626709</v>
+        <v>58.9500007629395</v>
       </c>
       <c r="C50" t="n">
-        <v>40.9550018310547</v>
+        <v>7.50400018692017</v>
       </c>
       <c r="D50" t="n">
-        <v>49.5099983215332</v>
+        <v>53.8400001525879</v>
       </c>
       <c r="E50" t="n">
-        <v>6.41949987411499</v>
+        <v>49.5999984741211</v>
       </c>
       <c r="F50" t="n">
-        <v>221.79460144043</v>
+        <v>221.451889038086</v>
       </c>
       <c r="G50" t="n">
-        <v>4.40093326568604</v>
+        <v>4.39851140975952</v>
       </c>
       <c r="H50" t="n">
-        <v>4.48517084121704</v>
+        <v>4.48472452163696</v>
       </c>
       <c r="I50" t="n">
-        <v>149.529998779297</v>
+        <v>148.75</v>
       </c>
     </row>
     <row r="51">
@@ -1835,13 +1835,13 @@
         <v>55.9799995422363</v>
       </c>
       <c r="C51" t="n">
-        <v>39.8549995422363</v>
+        <v>7.43699979782104</v>
       </c>
       <c r="D51" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="E51" t="n">
         <v>48.1650009155273</v>
-      </c>
-      <c r="E51" t="n">
-        <v>5.97399997711182</v>
       </c>
       <c r="F51" t="n">
         <v>221.099670410156</v>
@@ -1850,7 +1850,7 @@
         <v>4.36503791809082</v>
       </c>
       <c r="H51" t="n">
-        <v>4.48472499847412</v>
+        <v>4.48472452163696</v>
       </c>
       <c r="I51" t="n">
         <v>144.350006103516</v>
@@ -1864,22 +1864,22 @@
         <v>51.5950012207031</v>
       </c>
       <c r="C52" t="n">
-        <v>37.1699981689453</v>
+        <v>6.875</v>
       </c>
       <c r="D52" t="n">
+        <v>49.4099998474121</v>
+      </c>
+      <c r="E52" t="n">
         <v>44.3300018310547</v>
       </c>
-      <c r="E52" t="n">
-        <v>5.18300008773804</v>
-      </c>
       <c r="F52" t="n">
-        <v>220.919418334961</v>
+        <v>220.91943359375</v>
       </c>
       <c r="G52" t="n">
-        <v>4.33817148208618</v>
+        <v>4.33817052841187</v>
       </c>
       <c r="H52" t="n">
-        <v>4.48383092880249</v>
+        <v>4.48383140563965</v>
       </c>
       <c r="I52" t="n">
         <v>156.380004882812</v>
@@ -1893,19 +1893,19 @@
         <v>53.439998626709</v>
       </c>
       <c r="C53" t="n">
-        <v>38.6450004577637</v>
+        <v>7.05800008773804</v>
       </c>
       <c r="D53" t="n">
+        <v>51.0800018310547</v>
+      </c>
+      <c r="E53" t="n">
         <v>46.7150001525879</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5.20499992370605</v>
       </c>
       <c r="F53" t="n">
         <v>218.987213134766</v>
       </c>
       <c r="G53" t="n">
-        <v>4.35164642333984</v>
+        <v>4.35164594650269</v>
       </c>
       <c r="H53" t="n">
         <v>4.48427772521973</v>
@@ -1922,22 +1922,22 @@
         <v>54.5200004577637</v>
       </c>
       <c r="C54" t="n">
-        <v>38.9799995422363</v>
+        <v>7.16099977493286</v>
       </c>
       <c r="D54" t="n">
+        <v>51.7700004577637</v>
+      </c>
+      <c r="E54" t="n">
         <v>46.9749984741211</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5.29650020599365</v>
       </c>
       <c r="F54" t="n">
         <v>216.674255371094</v>
       </c>
       <c r="G54" t="n">
-        <v>4.35642719268799</v>
+        <v>4.35642766952515</v>
       </c>
       <c r="H54" t="n">
-        <v>4.48356533050537</v>
+        <v>4.48356485366821</v>
       </c>
       <c r="I54" t="n">
         <v>159.490005493164</v>
@@ -1951,22 +1951,22 @@
         <v>51.1399993896484</v>
       </c>
       <c r="C55" t="n">
-        <v>37.9550018310547</v>
+        <v>6.67799997329712</v>
       </c>
       <c r="D55" t="n">
+        <v>50.2700004577637</v>
+      </c>
+      <c r="E55" t="n">
         <v>46.2449989318848</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.99599981307983</v>
       </c>
       <c r="F55" t="n">
         <v>217.987777709961</v>
       </c>
       <c r="G55" t="n">
-        <v>4.30643844604492</v>
+        <v>4.30643939971924</v>
       </c>
       <c r="H55" t="n">
-        <v>4.48311996459961</v>
+        <v>4.48312044143677</v>
       </c>
       <c r="I55" t="n">
         <v>161.990005493164</v>
@@ -1980,13 +1980,13 @@
         <v>47.7299995422363</v>
       </c>
       <c r="C56" t="n">
-        <v>35.9000015258789</v>
+        <v>6.70499992370605</v>
       </c>
       <c r="D56" t="n">
+        <v>48.6199989318848</v>
+      </c>
+      <c r="E56" t="n">
         <v>44.1699981689453</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.80474996566772</v>
       </c>
       <c r="F56" t="n">
         <v>216.131729125977</v>
@@ -1995,7 +1995,7 @@
         <v>4.27861928939819</v>
       </c>
       <c r="H56" t="n">
-        <v>4.48178720474243</v>
+        <v>4.48178672790527</v>
       </c>
       <c r="I56" t="n">
         <v>153.800003051758</v>
@@ -2009,13 +2009,13 @@
         <v>45.3400001525879</v>
       </c>
       <c r="C57" t="n">
-        <v>35.3250007629395</v>
+        <v>6.75099992752075</v>
       </c>
       <c r="D57" t="n">
+        <v>48.6599998474121</v>
+      </c>
+      <c r="E57" t="n">
         <v>44.5999984741211</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.67325019836426</v>
       </c>
       <c r="F57" t="n">
         <v>213.904434204102</v>
@@ -2024,7 +2024,7 @@
         <v>4.24906063079834</v>
       </c>
       <c r="H57" t="n">
-        <v>4.48134231567383</v>
+        <v>4.48134183883667</v>
       </c>
       <c r="I57" t="n">
         <v>151.169998168945</v>
@@ -2038,19 +2038,19 @@
         <v>43.375</v>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>6.58900022506714</v>
       </c>
       <c r="D58" t="n">
+        <v>47.5999984741211</v>
+      </c>
+      <c r="E58" t="n">
         <v>43.560001373291</v>
       </c>
-      <c r="E58" t="n">
-        <v>4.39900016784668</v>
-      </c>
       <c r="F58" t="n">
-        <v>213.069641113281</v>
+        <v>213.069625854492</v>
       </c>
       <c r="G58" t="n">
-        <v>4.2195930480957</v>
+        <v>4.21959352493286</v>
       </c>
       <c r="H58" t="n">
         <v>4.48223114013672</v>
@@ -2067,22 +2067,22 @@
         <v>40.2599983215332</v>
       </c>
       <c r="C59" t="n">
-        <v>33.4500007629395</v>
+        <v>5.94299983978271</v>
       </c>
       <c r="D59" t="n">
+        <v>44.9700012207031</v>
+      </c>
+      <c r="E59" t="n">
         <v>39.0900001525879</v>
       </c>
-      <c r="E59" t="n">
-        <v>3.90799999237061</v>
-      </c>
       <c r="F59" t="n">
-        <v>213.069641113281</v>
+        <v>213.069625854492</v>
       </c>
       <c r="G59" t="n">
         <v>4.1595664024353</v>
       </c>
       <c r="H59" t="n">
-        <v>4.48356533050537</v>
+        <v>4.48356485366821</v>
       </c>
       <c r="I59" t="n">
         <v>142.190002441406</v>
@@ -2096,13 +2096,13 @@
         <v>43.3300018310547</v>
       </c>
       <c r="C60" t="n">
-        <v>34.3849983215332</v>
+        <v>6.51800012588501</v>
       </c>
       <c r="D60" t="n">
+        <v>48.7999992370605</v>
+      </c>
+      <c r="E60" t="n">
         <v>39.8650016784668</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4.82625007629395</v>
       </c>
       <c r="F60" t="n">
         <v>216.151123046875</v>
@@ -2111,7 +2111,7 @@
         <v>4.23155546188354</v>
       </c>
       <c r="H60" t="n">
-        <v>4.46038770675659</v>
+        <v>4.46038675308228</v>
       </c>
       <c r="I60" t="n">
         <v>140.130004882812</v>
@@ -2125,22 +2125,22 @@
         <v>47.5099983215332</v>
       </c>
       <c r="C61" t="n">
-        <v>38.1800003051758</v>
+        <v>7.15899991989136</v>
       </c>
       <c r="D61" t="n">
+        <v>53.5999984741211</v>
+      </c>
+      <c r="E61" t="n">
         <v>43.3300018310547</v>
       </c>
-      <c r="E61" t="n">
-        <v>5.36549997329712</v>
-      </c>
       <c r="F61" t="n">
-        <v>217.739410400391</v>
+        <v>217.73942565918</v>
       </c>
       <c r="G61" t="n">
-        <v>4.2110481262207</v>
+        <v>4.21104860305786</v>
       </c>
       <c r="H61" t="n">
-        <v>4.45068788528442</v>
+        <v>4.45068836212158</v>
       </c>
       <c r="I61" t="n">
         <v>138.929992675781</v>
@@ -2148,31 +2148,31 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43830</v>
+        <v>43829</v>
       </c>
       <c r="B62" t="n">
-        <v>45.8400001525879</v>
+        <v>45.9000015258789</v>
       </c>
       <c r="C62" t="n">
-        <v>38.0099983215332</v>
+        <v>7.12200021743774</v>
       </c>
       <c r="D62" t="n">
-        <v>43.8400001525879</v>
+        <v>52.4300003051758</v>
       </c>
       <c r="E62" t="n">
-        <v>5.51049995422363</v>
+        <v>43.9249992370605</v>
       </c>
       <c r="F62" t="n">
-        <v>212.670181274414</v>
+        <v>212.394378662109</v>
       </c>
       <c r="G62" t="n">
-        <v>4.19481372833252</v>
+        <v>4.19374561309814</v>
       </c>
       <c r="H62" t="n">
-        <v>4.44231367111206</v>
+        <v>4.44451665878296</v>
       </c>
       <c r="I62" t="n">
-        <v>131.470001220703</v>
+        <v>131.119995117188</v>
       </c>
     </row>
     <row r="63">
@@ -2183,22 +2183,22 @@
         <v>44.9500007629395</v>
       </c>
       <c r="C63" t="n">
-        <v>37.3600006103516</v>
+        <v>7.02500009536743</v>
       </c>
       <c r="D63" t="n">
+        <v>51.8800010681152</v>
+      </c>
+      <c r="E63" t="n">
         <v>42.4799995422363</v>
       </c>
-      <c r="E63" t="n">
-        <v>5.35550022125244</v>
-      </c>
       <c r="F63" t="n">
-        <v>214.144378662109</v>
+        <v>214.14436340332</v>
       </c>
       <c r="G63" t="n">
-        <v>4.16298532485962</v>
+        <v>4.16298484802246</v>
       </c>
       <c r="H63" t="n">
-        <v>4.43746376037598</v>
+        <v>4.43746328353882</v>
       </c>
       <c r="I63" t="n">
         <v>128.970001220703</v>
@@ -2212,22 +2212,22 @@
         <v>43.7400016784668</v>
       </c>
       <c r="C64" t="n">
-        <v>36.9199981689453</v>
+        <v>6.62599992752075</v>
       </c>
       <c r="D64" t="n">
+        <v>51.2799987792969</v>
+      </c>
+      <c r="E64" t="n">
         <v>40.4500007629395</v>
-      </c>
-      <c r="E64" t="n">
-        <v>5.17500019073486</v>
       </c>
       <c r="F64" t="n">
         <v>216.630447387695</v>
       </c>
       <c r="G64" t="n">
-        <v>4.16156959533691</v>
+        <v>4.16157007217407</v>
       </c>
       <c r="H64" t="n">
-        <v>4.43349599838257</v>
+        <v>4.43349552154541</v>
       </c>
       <c r="I64" t="n">
         <v>131.610000610352</v>
@@ -2241,22 +2241,22 @@
         <v>43.2700004577637</v>
       </c>
       <c r="C65" t="n">
-        <v>37.2150001525879</v>
+        <v>6.64799976348877</v>
       </c>
       <c r="D65" t="n">
+        <v>51.0699996948242</v>
+      </c>
+      <c r="E65" t="n">
         <v>38.6549987792969</v>
       </c>
-      <c r="E65" t="n">
-        <v>5.04549980163574</v>
-      </c>
       <c r="F65" t="n">
-        <v>218.850158691406</v>
+        <v>218.850143432617</v>
       </c>
       <c r="G65" t="n">
-        <v>4.15214538574219</v>
+        <v>4.15214443206787</v>
       </c>
       <c r="H65" t="n">
-        <v>4.422034740448</v>
+        <v>4.42203426361084</v>
       </c>
       <c r="I65" t="n">
         <v>130.729995727539</v>
@@ -2270,22 +2270,22 @@
         <v>43.4900016784668</v>
       </c>
       <c r="C66" t="n">
-        <v>36.8300018310547</v>
+        <v>6.46299982070923</v>
       </c>
       <c r="D66" t="n">
+        <v>50.4799995422363</v>
+      </c>
+      <c r="E66" t="n">
         <v>38.5849990844727</v>
       </c>
-      <c r="E66" t="n">
-        <v>4.92049980163574</v>
-      </c>
       <c r="F66" t="n">
-        <v>219.84619140625</v>
+        <v>219.846145629883</v>
       </c>
       <c r="G66" t="n">
-        <v>4.15905666351318</v>
+        <v>4.15905570983887</v>
       </c>
       <c r="H66" t="n">
-        <v>4.41604900360107</v>
+        <v>4.41604995727539</v>
       </c>
       <c r="I66" t="n">
         <v>135.070007324219</v>
@@ -2299,13 +2299,13 @@
         <v>44.0099983215332</v>
       </c>
       <c r="C67" t="n">
-        <v>36.4449996948242</v>
+        <v>6.58300018310547</v>
       </c>
       <c r="D67" t="n">
+        <v>49.9550018310547</v>
+      </c>
+      <c r="E67" t="n">
         <v>39.0449981689453</v>
-      </c>
-      <c r="E67" t="n">
-        <v>5.16750001907349</v>
       </c>
       <c r="F67" t="n">
         <v>215.444686889648</v>
@@ -2314,7 +2314,7 @@
         <v>4.14188241958618</v>
       </c>
       <c r="H67" t="n">
-        <v>4.4060320854187</v>
+        <v>4.40603256225586</v>
       </c>
       <c r="I67" t="n">
         <v>124.610000610352</v>
@@ -2328,22 +2328,22 @@
         <v>43.0800018310547</v>
       </c>
       <c r="C68" t="n">
-        <v>35.6949996948242</v>
+        <v>6.26000022888184</v>
       </c>
       <c r="D68" t="n">
+        <v>49.3300018310547</v>
+      </c>
+      <c r="E68" t="n">
         <v>39.0849990844727</v>
-      </c>
-      <c r="E68" t="n">
-        <v>5.08500003814697</v>
       </c>
       <c r="F68" t="n">
         <v>212.039245605469</v>
       </c>
       <c r="G68" t="n">
-        <v>4.13559865951538</v>
+        <v>4.13559913635254</v>
       </c>
       <c r="H68" t="n">
-        <v>4.39906358718872</v>
+        <v>4.39906311035156</v>
       </c>
       <c r="I68" t="n">
         <v>120.5</v>
@@ -2357,13 +2357,13 @@
         <v>40.689998626709</v>
       </c>
       <c r="C69" t="n">
-        <v>34.2750015258789</v>
+        <v>6.02400016784668</v>
       </c>
       <c r="D69" t="n">
+        <v>47.2000007629395</v>
+      </c>
+      <c r="E69" t="n">
         <v>36.8349990844727</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4.82025003433228</v>
       </c>
       <c r="F69" t="n">
         <v>207.846466064453</v>
@@ -2372,7 +2372,7 @@
         <v>4.10690593719482</v>
       </c>
       <c r="H69" t="n">
-        <v>4.38686800003052</v>
+        <v>4.38686752319336</v>
       </c>
       <c r="I69" t="n">
         <v>113.379997253418</v>
@@ -2386,19 +2386,19 @@
         <v>41.939998626709</v>
       </c>
       <c r="C70" t="n">
-        <v>35.2150001525879</v>
+        <v>6.3600001335144</v>
       </c>
       <c r="D70" t="n">
+        <v>47.5499992370605</v>
+      </c>
+      <c r="E70" t="n">
         <v>37.4199981689453</v>
       </c>
-      <c r="E70" t="n">
-        <v>5.14750003814697</v>
-      </c>
       <c r="F70" t="n">
-        <v>205.437271118164</v>
+        <v>205.437255859375</v>
       </c>
       <c r="G70" t="n">
-        <v>4.08697509765625</v>
+        <v>4.08697462081909</v>
       </c>
       <c r="H70" t="n">
         <v>4.37684965133667</v>
@@ -2415,19 +2415,19 @@
         <v>40.7000007629395</v>
       </c>
       <c r="C71" t="n">
-        <v>34.6650009155273</v>
+        <v>6.12900018692017</v>
       </c>
       <c r="D71" t="n">
+        <v>47.0800018310547</v>
+      </c>
+      <c r="E71" t="n">
         <v>38.4300003051758</v>
       </c>
-      <c r="E71" t="n">
-        <v>4.98999977111816</v>
-      </c>
       <c r="F71" t="n">
-        <v>205.550674438477</v>
+        <v>205.550659179688</v>
       </c>
       <c r="G71" t="n">
-        <v>4.06774663925171</v>
+        <v>4.06774616241455</v>
       </c>
       <c r="H71" t="n">
         <v>4.36857414245605</v>
@@ -2487,13 +2487,13 @@
         <v>-0.00279452470786434</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00314431047883723</v>
+        <v>-0.00178155564840643</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.0225348031589877</v>
+      </c>
+      <c r="E2" t="n">
         <v>-0.03823484958382</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.0232412791421245</v>
       </c>
       <c r="F2" t="n">
         <v>-0.00895554119841324</v>
@@ -2516,13 +2516,13 @@
         <v>0.0395983606004451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0217638980268815</v>
+        <v>0.076412470976696</v>
       </c>
       <c r="D3" t="n">
+        <v>0.033219603346162</v>
+      </c>
+      <c r="E3" t="n">
         <v>-0.0119628260056078</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0627393239430445</v>
       </c>
       <c r="F3" t="n">
         <v>0.0261796871299396</v>
@@ -2545,13 +2545,13 @@
         <v>-0.00452660148217277</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0438014630654454</v>
+        <v>0.0183265343866776</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.0196277769421457</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.040187393322188</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.0233487821522161</v>
       </c>
       <c r="F4" t="n">
         <v>-0.0160195151050253</v>
@@ -2574,13 +2574,13 @@
         <v>0.0215799658073756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0123395199956648</v>
+        <v>0.00833078254594044</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00526162847100098</v>
+      </c>
+      <c r="E5" t="n">
         <v>-0.0281896660070431</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0241775787242802</v>
       </c>
       <c r="F5" t="n">
         <v>0.0161731973459904</v>
@@ -2603,13 +2603,13 @@
         <v>0.0165839202494169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0490423471557702</v>
+        <v>0.00487063379204766</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0421933979997622</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0446319600968605</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.00210946219684061</v>
       </c>
       <c r="F6" t="n">
         <v>0.00242929483768317</v>
@@ -2632,13 +2632,13 @@
         <v>-0.0212167187888375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0252481261349322</v>
+        <v>-0.0109890038898512</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0458818073460603</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.033280483754407</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0699675267784516</v>
       </c>
       <c r="F7" t="n">
         <v>0.0257854273424174</v>
@@ -2661,13 +2661,13 @@
         <v>0.0544474539311022</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00344085693359375</v>
+        <v>0.0650954205666281</v>
       </c>
       <c r="D8" t="n">
+        <v>0.0163536619766766</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.026684012594832</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.0108831580605774</v>
       </c>
       <c r="F8" t="n">
         <v>0.00266153595174723</v>
@@ -2690,13 +2690,13 @@
         <v>0.0386337403767536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.021753498461422</v>
+        <v>0.0179533435803647</v>
       </c>
       <c r="D9" t="n">
+        <v>0.0137885780997298</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.0226289624772149</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0312230235373689</v>
       </c>
       <c r="F9" t="n">
         <v>-0.00226080100615711</v>
@@ -2719,13 +2719,13 @@
         <v>-0.035116132387511</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0153613777675949</v>
+        <v>-0.0246737039491027</v>
       </c>
       <c r="D10" t="n">
+        <v>-0.0347013535133295</v>
+      </c>
+      <c r="E10" t="n">
         <v>-0.0426887600714572</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.0500273614323991</v>
       </c>
       <c r="F10" t="n">
         <v>-0.016152050631842</v>
@@ -2748,13 +2748,13 @@
         <v>0.0502127789436502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0246065305992669</v>
+        <v>0.0291612009546742</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0246793384315296</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.0246449862942977</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0440987607541854</v>
       </c>
       <c r="F11" t="n">
         <v>0.0113334914764978</v>
@@ -2777,13 +2777,13 @@
         <v>0.0839483242253332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000665456479112425</v>
+        <v>0.0578856346153036</v>
       </c>
       <c r="D12" t="n">
+        <v>0.0052227793770756</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.0201465044423184</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.0211308628925002</v>
       </c>
       <c r="F12" t="n">
         <v>-0.0143695747821689</v>
@@ -2806,13 +2806,13 @@
         <v>0.0527679216679255</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00951747986509521</v>
+        <v>0.0466170812532072</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0271584055397205</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.030188716282378</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.0262522980817572</v>
       </c>
       <c r="F13" t="n">
         <v>-0.00532086851075886</v>
@@ -2835,13 +2835,13 @@
         <v>0.0506802649813316</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0303414541319622</v>
+        <v>0.0411709031178575</v>
       </c>
       <c r="D14" t="n">
+        <v>0.0272085730903751</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.0468665949849709</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.105151695757484</v>
       </c>
       <c r="F14" t="n">
         <v>0.0398697242630734</v>
@@ -2864,19 +2864,19 @@
         <v>0.0901001248439981</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0408261476430778</v>
+        <v>0.0510122993318223</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0556262764344277</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.0590472491451117</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0913992127881966</v>
       </c>
       <c r="F15" t="n">
         <v>0.0334714637279805</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0102299042132075</v>
+        <v>0.010229799836424</v>
       </c>
       <c r="H15" t="n">
         <v>0.00535707651677964</v>
@@ -2893,19 +2893,19 @@
         <v>-0.0224719404061056</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0206961678890235</v>
+        <v>-0.0230754230253815</v>
       </c>
       <c r="D16" t="n">
+        <v>-0.0173276389538244</v>
+      </c>
+      <c r="E16" t="n">
         <v>-0.0491818317637469</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.0666187099793306</v>
       </c>
       <c r="F16" t="n">
         <v>0.00719337701434397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00350902695213473</v>
+        <v>0.00350923468076902</v>
       </c>
       <c r="H16" t="n">
         <v>0.00448426617512365</v>
@@ -2922,19 +2922,19 @@
         <v>-0.0399303737255194</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0493012429644527</v>
+        <v>-0.0242194486769821</v>
       </c>
       <c r="D17" t="n">
+        <v>-0.026434790569803</v>
+      </c>
+      <c r="E17" t="n">
         <v>-0.0346482907772754</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.0505839392882795</v>
       </c>
       <c r="F17" t="n">
         <v>-0.0310676066700709</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.000292506131797099</v>
+        <v>-0.000292506162115957</v>
       </c>
       <c r="H17" t="n">
         <v>0.00410909868350795</v>
@@ -2951,19 +2951,19 @@
         <v>-0.01092758784307</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0312973738819888</v>
+        <v>0.0155649214616029</v>
       </c>
       <c r="D18" t="n">
+        <v>-0.0128755364806867</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.00026174661143985</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.0337803496693936</v>
       </c>
       <c r="F18" t="n">
         <v>0.00450479603545539</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00107312002435522</v>
+        <v>0.00107301626105771</v>
       </c>
       <c r="H18" t="n">
         <v>0.00451337412842912</v>
@@ -2980,13 +2980,13 @@
         <v>0.0241452042889996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.019430276785803</v>
+        <v>0.0286617870111028</v>
       </c>
       <c r="D19" t="n">
+        <v>0.014808335392428</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.0129927632016376</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.047352309476471</v>
       </c>
       <c r="F19" t="n">
         <v>-0.00232835947167109</v>
@@ -3009,13 +3009,13 @@
         <v>0.0651398759317525</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0311931421607099</v>
+        <v>0.040090497107655</v>
       </c>
       <c r="D20" t="n">
+        <v>0.0307057450410817</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.0361754451865852</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.0704016572450885</v>
       </c>
       <c r="F20" t="n">
         <v>-0.0045814666102042</v>
@@ -3038,19 +3038,19 @@
         <v>-0.0493441491421033</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0656313760040006</v>
+        <v>0.0448978784896052</v>
       </c>
       <c r="D21" t="n">
+        <v>-0.0418100541953499</v>
+      </c>
+      <c r="E21" t="n">
         <v>-0.0451245833106209</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.033888891495935</v>
       </c>
       <c r="F21" t="n">
         <v>0.0067365242374775</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.00578854966251985</v>
+        <v>-0.00578844686636104</v>
       </c>
       <c r="H21" t="n">
         <v>0.00317645639119557</v>
@@ -3067,19 +3067,19 @@
         <v>0.028165134814901</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0408547658754888</v>
+        <v>0.00280051936418979</v>
       </c>
       <c r="D22" t="n">
+        <v>0.0279447822917087</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.0356851252724291</v>
       </c>
-      <c r="E22" t="n">
-        <v>-0.000317336564103043</v>
-      </c>
       <c r="F22" t="n">
-        <v>-0.00118261373642603</v>
+        <v>-0.0011826996929869</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0017344499713825</v>
+        <v>0.00173434639739645</v>
       </c>
       <c r="H22" t="n">
         <v>0.00258764672806877</v>
@@ -3096,22 +3096,22 @@
         <v>0.00664943875895929</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0463392031295367</v>
+        <v>0.0114392087422606</v>
       </c>
       <c r="D23" t="n">
+        <v>0.035531181238508</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.0291760339152478</v>
       </c>
-      <c r="E23" t="n">
-        <v>-0.0288928266703739</v>
-      </c>
       <c r="F23" t="n">
-        <v>0.0296689364233025</v>
+        <v>0.0296689337942908</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0194498206579641</v>
+        <v>0.0194499283001339</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00551156104584716</v>
+        <v>0.00551145586577939</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -3125,22 +3125,22 @@
         <v>-0.026434116248319</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0164084139283739</v>
+        <v>0.00768467375576076</v>
       </c>
       <c r="D24" t="n">
+        <v>-0.0284697912294952</v>
+      </c>
+      <c r="E24" t="n">
         <v>-0.033513524510839</v>
       </c>
-      <c r="E24" t="n">
-        <v>-0.0110484233889724</v>
-      </c>
       <c r="F24" t="n">
-        <v>-0.0240923336379909</v>
+        <v>-0.0240923315545646</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00293810544206441</v>
+        <v>-0.00293831568922664</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00335971411940572</v>
+        <v>0.00335981907439353</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3154,22 +3154,22 @@
         <v>0.007792683994158</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00194092710866234</v>
+        <v>0.0455693661240253</v>
       </c>
       <c r="D25" t="n">
+        <v>0.0107914083684306</v>
+      </c>
+      <c r="E25" t="n">
         <v>-0.0142971370360118</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.0900331924604283</v>
-      </c>
       <c r="F25" t="n">
-        <v>0.0314240959187233</v>
+        <v>0.0314240931158767</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00373559419681557</v>
+        <v>0.0037358059346404</v>
       </c>
       <c r="H25" t="n">
-        <v>0.00217856353228529</v>
+        <v>0.00217866894508467</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3183,22 +3183,22 @@
         <v>-0.0153461919397163</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00148204378708805</v>
+        <v>-0.0614091489036854</v>
       </c>
       <c r="D26" t="n">
+        <v>-0.00394126158914188</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.0070649339803559</v>
       </c>
-      <c r="E26" t="n">
-        <v>-0.0201823032879878</v>
-      </c>
       <c r="F26" t="n">
-        <v>-0.0516248385396797</v>
+        <v>-0.0516248341727578</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0047412410572194</v>
+        <v>0.00474124156060918</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00477616230835154</v>
+        <v>0.00477605662233849</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -3212,19 +3212,19 @@
         <v>0.043575421216806</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0589088012861296</v>
+        <v>0.000538876849883518</v>
       </c>
       <c r="D27" t="n">
+        <v>0.0461019313405973</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.0374837721403221</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.0428583649977001</v>
-      </c>
       <c r="F27" t="n">
-        <v>0.0216273944115246</v>
+        <v>0.021627480830535</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.000984311370779811</v>
+        <v>-0.000984417438815499</v>
       </c>
       <c r="H27" t="n">
         <v>0.00319427913597559</v>
@@ -3241,19 +3241,19 @@
         <v>0.0859453980673177</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0486075485808939</v>
+        <v>0.052171942593503</v>
       </c>
       <c r="D28" t="n">
+        <v>0.044635839811398</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.0662840999888443</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0651780600082004</v>
       </c>
       <c r="F28" t="n">
         <v>0.00574773684491392</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00803312042335214</v>
+        <v>0.00803322820235874</v>
       </c>
       <c r="H28" t="n">
         <v>0.00109918732737624</v>
@@ -3270,22 +3270,22 @@
         <v>-0.0683873576280001</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0725522456331837</v>
+        <v>-0.0611222891596241</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.0608567309383664</v>
+      </c>
+      <c r="E29" t="n">
         <v>-0.0288239810455584</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.0905204162200688</v>
       </c>
       <c r="F29" t="n">
         <v>-0.0458895099491499</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0301076105115465</v>
+        <v>-0.0301076136337357</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00108093083094607</v>
+        <v>0.00108082446122948</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3299,22 +3299,22 @@
         <v>-0.0155785676264064</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0221558981936965</v>
+        <v>-0.0214650750696798</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.0229926140003163</v>
+      </c>
+      <c r="E30" t="n">
         <v>-0.0514900332910807</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.0265706107873809</v>
       </c>
       <c r="F30" t="n">
         <v>-0.0580869730675201</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0115989989210019</v>
+        <v>-0.0115993040376579</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00119658492449792</v>
+        <v>0.00119679781584936</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -3328,22 +3328,22 @@
         <v>0.0413286875260428</v>
       </c>
       <c r="C31" t="n">
-        <v>0.040989487245062</v>
+        <v>0.109479831826969</v>
       </c>
       <c r="D31" t="n">
+        <v>0.0330302245213754</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.0308126491566383</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.0860495229266038</v>
       </c>
       <c r="F31" t="n">
         <v>0.0464025196527058</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0172144867474924</v>
+        <v>0.0172146952727124</v>
       </c>
       <c r="H31" t="n">
-        <v>0.000698566448392057</v>
+        <v>0.000698459992060529</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3357,19 +3357,19 @@
         <v>-0.0756872838953928</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0348327191391861</v>
+        <v>-0.0662781006562894</v>
       </c>
       <c r="D32" t="n">
+        <v>-0.0414443575322559</v>
+      </c>
+      <c r="E32" t="n">
         <v>-0.0327124580071343</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.0970804856389382</v>
       </c>
       <c r="F32" t="n">
         <v>-0.0187140244861478</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0148627734065416</v>
+        <v>-0.01486287459291</v>
       </c>
       <c r="H32" t="n">
         <v>-0.000996926798198516</v>
@@ -3386,22 +3386,22 @@
         <v>-0.0248912147290739</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0482985905551779</v>
+        <v>-0.045637153588137</v>
       </c>
       <c r="D33" t="n">
+        <v>-0.0236193221101648</v>
+      </c>
+      <c r="E33" t="n">
         <v>-0.00569206045971171</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.0184871913653027</v>
       </c>
       <c r="F33" t="n">
         <v>-0.0158565288232283</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00156955154362204</v>
+        <v>0.00156955138215586</v>
       </c>
       <c r="H33" t="n">
-        <v>0.000798156714595821</v>
+        <v>0.000798263234645713</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3415,19 +3415,19 @@
         <v>-0.103604243319726</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0135736677568348</v>
+        <v>-0.0230475135408605</v>
       </c>
       <c r="D34" t="n">
+        <v>-0.0409726690033487</v>
+      </c>
+      <c r="E34" t="n">
         <v>-0.0467660001432442</v>
       </c>
-      <c r="E34" t="n">
-        <v>-0.0695907484364642</v>
-      </c>
       <c r="F34" t="n">
-        <v>-0.0387218138104798</v>
+        <v>-0.0387218867493032</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.000571859044662282</v>
+        <v>-0.000571858985866425</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3444,22 +3444,22 @@
         <v>0.0556744737998596</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0032369787630484</v>
+        <v>0.0632423313412478</v>
       </c>
       <c r="D35" t="n">
+        <v>0.0494669092176716</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.0551617561279727</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.0102084992182523</v>
-      </c>
       <c r="F35" t="n">
-        <v>-0.0298508165845329</v>
+        <v>-0.0298506715580328</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.003041458735763</v>
+        <v>-0.00304115185125464</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.000398972332385839</v>
+        <v>-0.000399078725007884</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3473,19 +3473,19 @@
         <v>-0.0136474437530474</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.00033481820767467</v>
+        <v>-0.0285862392725269</v>
       </c>
       <c r="D36" t="n">
+        <v>-0.00986500011883795</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.00200328921247928</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.0164851318962853</v>
-      </c>
       <c r="F36" t="n">
-        <v>-0.0189673832703504</v>
+        <v>-0.0189675263320114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00901425208733064</v>
+        <v>0.00901404523405391</v>
       </c>
       <c r="H36" t="n">
         <v>-0.000199340029201078</v>
@@ -3499,22 +3499,22 @@
         <v>44592</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0850304398907001</v>
+        <v>-0.0911104824634337</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0304013583178188</v>
+        <v>-0.0780141967135619</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0789231183189609</v>
+        <v>-0.0627737656252533</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0815194944662199</v>
+        <v>-0.082002823571188</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.0154364436042523</v>
+        <v>-0.0131600711427617</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.00628928425963604</v>
+        <v>-0.00647869887167118</v>
       </c>
       <c r="H37" t="n">
         <v>-0.000398733749207292</v>
@@ -3525,25 +3525,25 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0124923866821367</v>
+        <v>0.0192654836282662</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0695441132095527</v>
+        <v>0.0320475143011063</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0686564818774014</v>
+        <v>0.0533060449624618</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0313719892340647</v>
+        <v>0.0722416203337828</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.0125705941892753</v>
+        <v>-0.014848324435745</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0030587991272768</v>
+        <v>0.0032499286355876</v>
       </c>
       <c r="H38" t="n">
         <v>-0.000199220848748904</v>
@@ -3560,19 +3560,19 @@
         <v>-0.0290807811616949</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0145951975352097</v>
+        <v>0.0251469458102784</v>
       </c>
       <c r="D39" t="n">
+        <v>-0.0146465105089769</v>
+      </c>
+      <c r="E39" t="n">
         <v>-0.0241406637980197</v>
       </c>
-      <c r="E39" t="n">
-        <v>-0.0475431963476681</v>
-      </c>
       <c r="F39" t="n">
-        <v>0.0200606684182405</v>
+        <v>0.0200608130860571</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00345283678192887</v>
+        <v>0.00345294022841403</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3589,19 +3589,19 @@
         <v>0.0680505795398618</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0293427240557147</v>
+        <v>0.066854175837769</v>
       </c>
       <c r="D40" t="n">
+        <v>0.0282153549454607</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.0275930220733343</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.0332052825809714</v>
-      </c>
       <c r="F40" t="n">
-        <v>-0.0138784280549925</v>
+        <v>-0.0138784986766559</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00559395297584264</v>
+        <v>0.00559405758292519</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3618,19 +3618,19 @@
         <v>-0.0324675549115926</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0344515071296884</v>
+        <v>-0.039384776511883</v>
       </c>
       <c r="D41" t="n">
+        <v>-0.043384649087012</v>
+      </c>
+      <c r="E41" t="n">
         <v>-0.0453063217592046</v>
       </c>
-      <c r="E41" t="n">
-        <v>-0.0225321550117307</v>
-      </c>
       <c r="F41" t="n">
-        <v>-0.0130881185100433</v>
+        <v>-0.0130880497248871</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.00173296349322571</v>
+        <v>-0.00173306733811385</v>
       </c>
       <c r="H41" t="n">
         <v>-0.000119475709971617</v>
@@ -3647,19 +3647,19 @@
         <v>0.0327510665029258</v>
       </c>
       <c r="C42" t="n">
-        <v>0.00501133025875111</v>
+        <v>0.0356220764729405</v>
       </c>
       <c r="D42" t="n">
+        <v>0.0173517312787437</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.0271461471523684</v>
       </c>
-      <c r="E42" t="n">
-        <v>0.0218597465538526</v>
-      </c>
       <c r="F42" t="n">
-        <v>-0.00617948696813508</v>
+        <v>-0.00617955623479982</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00154291583739918</v>
+        <v>0.00154281167182679</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3676,19 +3676,19 @@
         <v>0.0172934156496158</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0163213759934153</v>
+        <v>0.033018336310628</v>
       </c>
       <c r="D43" t="n">
+        <v>0.0293047077347801</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.0372063234073787</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-0.00572321547503407</v>
       </c>
       <c r="F43" t="n">
         <v>0.0180370846640885</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0128932002587721</v>
+        <v>0.0128933056048428</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0.00952986935082212</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.00780981173261908</v>
+        <v>0.0594817583103902</v>
       </c>
       <c r="D44" t="n">
+        <v>0.00487887754442773</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.0248266964485147</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.000477162198092573</v>
       </c>
       <c r="F44" t="n">
         <v>0.0046850728464003</v>
       </c>
       <c r="G44" t="n">
-        <v>0.000390670448241481</v>
+        <v>0.000390775876650595</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3734,22 +3734,22 @@
         <v>-0.0122606822086162</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0366710549993154</v>
+        <v>-0.000588594998031433</v>
       </c>
       <c r="D45" t="n">
+        <v>0.0231770232398647</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.0263461333054762</v>
       </c>
-      <c r="E45" t="n">
-        <v>0.00555215089874772</v>
-      </c>
       <c r="F45" t="n">
-        <v>-0.000353469428860387</v>
+        <v>-0.000353540225186411</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0073367470279857</v>
+        <v>0.00733664086755992</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.0000996948784041107</v>
+        <v>-0.0000994823305139336</v>
       </c>
       <c r="I45" t="n">
         <v>0.0576692932516212</v>
@@ -3763,22 +3763,22 @@
         <v>0.0691813299472517</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0238936866224522</v>
+        <v>0.020788313512484</v>
       </c>
       <c r="D46" t="n">
+        <v>0.025974063127904</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.0358565579622343</v>
       </c>
-      <c r="E46" t="n">
-        <v>0.041922575293923</v>
-      </c>
       <c r="F46" t="n">
-        <v>-0.00997337311380031</v>
+        <v>-0.00997330299876398</v>
       </c>
       <c r="G46" t="n">
         <v>0.00890380037647631</v>
       </c>
       <c r="H46" t="n">
-        <v>0.000099704818463886</v>
+        <v>0.0000994922282326893</v>
       </c>
       <c r="I46" t="n">
         <v>0.0113086505609394</v>
@@ -3792,13 +3792,13 @@
         <v>-0.00185717729531842</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0697704545230677</v>
+        <v>0.0758887402998163</v>
       </c>
       <c r="D47" t="n">
+        <v>0.0471173937485141</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.0230283487903593</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.0177350977301263</v>
       </c>
       <c r="F47" t="n">
         <v>0.00567480975788892</v>
@@ -3807,7 +3807,7 @@
         <v>0.00827934702166089</v>
       </c>
       <c r="H47" t="n">
-        <v>0.000079515068637015</v>
+        <v>0.0000798340048000501</v>
       </c>
       <c r="I47" t="n">
         <v>0.0195794947536982</v>
@@ -3821,22 +3821,22 @@
         <v>-0.00537363054448314</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.0288753648142485</v>
+        <v>0.0372804563517819</v>
       </c>
       <c r="D48" t="n">
+        <v>-0.0149056776514593</v>
+      </c>
+      <c r="E48" t="n">
         <v>-0.0254220222063118</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.043221160173611</v>
       </c>
       <c r="F48" t="n">
         <v>-0.0189037036258122</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.00308272244635133</v>
+        <v>-0.00308282977396668</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0000993839576435285</v>
+        <v>-0.0000997028366519492</v>
       </c>
       <c r="I48" t="n">
         <v>-0.0697518295569445</v>
@@ -3847,57 +3847,57 @@
         <v>44225</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0103495185708256</v>
+        <v>0.0101780910323295</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.0360151928426949</v>
+        <v>-0.00626338046399988</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0169662730976614</v>
+        <v>-0.0156017858508033</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0271828011492818</v>
+        <v>0.0151209682071123</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.00553677743179803</v>
+        <v>-0.00399777552249281</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00640527374075051</v>
+        <v>0.00695951702597486</v>
       </c>
       <c r="H49" t="n">
-        <v>0.000199020102412462</v>
+        <v>0.000298559863325831</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.00862698653557015</v>
+        <v>-0.00342853449973735</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0528760112303925</v>
+        <v>0.0530546846193218</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0276001079275545</v>
+        <v>0.00900906157329073</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0279247873028123</v>
+        <v>0.0255238124302455</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0745731333629089</v>
+        <v>0.0297933672026804</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00314306678514842</v>
+        <v>0.00159303099491881</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00822337589473099</v>
+        <v>0.00766854545065243</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0000994136191341255</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0358849494752815</v>
+        <v>0.0304814250809873</v>
       </c>
     </row>
     <row r="51">
@@ -3908,22 +3908,22 @@
         <v>0.0849888209668976</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0722357144352586</v>
+        <v>0.0817454251376066</v>
       </c>
       <c r="D51" t="n">
+        <v>0.0625379510651776</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.0865102397037598</v>
       </c>
-      <c r="E51" t="n">
-        <v>0.152614292105673</v>
-      </c>
       <c r="F51" t="n">
-        <v>0.000815917752064799</v>
+        <v>0.000815848626235738</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0061930322753676</v>
+        <v>0.00619325347009592</v>
       </c>
       <c r="H51" t="n">
-        <v>0.000199398613780932</v>
+        <v>0.000199185900743526</v>
       </c>
       <c r="I51" t="n">
         <v>-0.0769279856993985</v>
@@ -3937,22 +3937,22 @@
         <v>-0.0345246529457008</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0381679977059499</v>
+        <v>-0.0259280370449365</v>
       </c>
       <c r="D52" t="n">
+        <v>-0.0326938512877515</v>
+      </c>
+      <c r="E52" t="n">
         <v>-0.0510542291286085</v>
       </c>
-      <c r="E52" t="n">
-        <v>-0.00422667363890239</v>
-      </c>
       <c r="F52" t="n">
-        <v>0.00882336997003663</v>
+        <v>0.00882343964894106</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.00309651565012037</v>
+        <v>-0.00309662556570123</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.0000996362055640798</v>
+        <v>-0.0000995298702326508</v>
       </c>
       <c r="I52" t="n">
         <v>0.002243197502108</v>
@@ -3966,22 +3966,22 @@
         <v>-0.0198092777326985</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.00859412746040877</v>
+        <v>-0.014383422766661</v>
       </c>
       <c r="D53" t="n">
+        <v>-0.0133281557003639</v>
+      </c>
+      <c r="E53" t="n">
         <v>-0.005534823416257</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-0.0172756119567509</v>
       </c>
       <c r="F53" t="n">
         <v>0.0106748157953076</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.00109740600191111</v>
+        <v>-0.0010976247937986</v>
       </c>
       <c r="H53" t="n">
-        <v>0.000158890227272668</v>
+        <v>0.000158996596409278</v>
       </c>
       <c r="I53" t="n">
         <v>-0.0216941914521126</v>
@@ -3995,22 +3995,22 @@
         <v>0.066093099500494</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0270056029965198</v>
+        <v>0.0723270146102248</v>
       </c>
       <c r="D54" t="n">
+        <v>0.0298388698297365</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.0157854807892106</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.0601481993908586</v>
       </c>
       <c r="F54" t="n">
         <v>-0.00602566966215357</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0116079092431882</v>
+        <v>0.0116077959460354</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0000993428481232961</v>
+        <v>0.0000991301119945831</v>
       </c>
       <c r="I54" t="n">
         <v>-0.0154330508995847</v>
@@ -4024,22 +4024,22 @@
         <v>0.0714435340481114</v>
       </c>
       <c r="C55" t="n">
-        <v>0.057242345900582</v>
+        <v>-0.00402683828727202</v>
       </c>
       <c r="D55" t="n">
+        <v>0.0339366837130233</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.0469776058174785</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.0398043287951886</v>
       </c>
       <c r="F55" t="n">
         <v>0.0085875803219182</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00650190044149523</v>
+        <v>0.00650212333450173</v>
       </c>
       <c r="H55" t="n">
-        <v>0.000297372408883501</v>
+        <v>0.000297585229388497</v>
       </c>
       <c r="I55" t="n">
         <v>0.0532509901098643</v>
@@ -4053,13 +4053,13 @@
         <v>0.0527128227085376</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0162774451669001</v>
+        <v>-0.00681380600037873</v>
       </c>
       <c r="D56" t="n">
+        <v>-0.000822049232486188</v>
+      </c>
+      <c r="E56" t="n">
         <v>-0.00964126277773947</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.0281388245271983</v>
       </c>
       <c r="F56" t="n">
         <v>0.0104125701281619</v>
@@ -4068,7 +4068,7 @@
         <v>0.0069565160792493</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0000992758502396107</v>
+        <v>0.0000992758608031608</v>
       </c>
       <c r="I56" t="n">
         <v>0.0173976643161247</v>
@@ -4082,22 +4082,22 @@
         <v>0.0453025971778187</v>
       </c>
       <c r="C57" t="n">
-        <v>0.00928573608398442</v>
+        <v>0.0245863859341366</v>
       </c>
       <c r="D57" t="n">
+        <v>0.022268937127536</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.0238750474757274</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.0623437190391889</v>
-      </c>
       <c r="F57" t="n">
-        <v>0.00391793540580698</v>
+        <v>0.00391800730048431</v>
       </c>
       <c r="G57" t="n">
-        <v>0.00698351295178457</v>
+        <v>0.0069833991571373</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.000198299559996284</v>
+        <v>-0.00019840594388032</v>
       </c>
       <c r="I57" t="n">
         <v>0.00212125987724598</v>
@@ -4111,22 +4111,22 @@
         <v>0.0773721263868192</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0463377937730229</v>
+        <v>0.108699377873118</v>
       </c>
       <c r="D58" t="n">
+        <v>0.0584833707366497</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.114351527328075</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.125639758555432</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.014430986274256</v>
+        <v>0.0144311009105214</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.000297573531398032</v>
+        <v>-0.000297467210807256</v>
       </c>
       <c r="I58" t="n">
         <v>0.0609044483677956</v>
@@ -4140,22 +4140,22 @@
         <v>-0.0708516819706481</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0271920198992192</v>
+        <v>-0.0882172867439492</v>
       </c>
       <c r="D59" t="n">
+        <v>-0.078483567135976</v>
+      </c>
+      <c r="E59" t="n">
         <v>-0.0194406495233519</v>
       </c>
-      <c r="E59" t="n">
-        <v>-0.190261604642845</v>
-      </c>
       <c r="F59" t="n">
-        <v>-0.0142561458398044</v>
+        <v>-0.0142562164329563</v>
       </c>
       <c r="G59" t="n">
         <v>-0.0170124343392627</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00519632490997801</v>
+        <v>0.00519643292589378</v>
       </c>
       <c r="I59" t="n">
         <v>0.0147006171898481</v>
@@ -4169,22 +4169,22 @@
         <v>-0.0879814068228244</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.0993976415219703</v>
+        <v>-0.0895376171503122</v>
       </c>
       <c r="D60" t="n">
+        <v>-0.0895522271213881</v>
+      </c>
+      <c r="E60" t="n">
         <v>-0.0799676899645206</v>
       </c>
-      <c r="E60" t="n">
-        <v>-0.100503196288677</v>
-      </c>
       <c r="F60" t="n">
-        <v>-0.00729444132596391</v>
+        <v>-0.00729451089299193</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00486988869472893</v>
+        <v>0.00486977490850915</v>
       </c>
       <c r="H60" t="n">
-        <v>0.00217939826880231</v>
+        <v>0.00217907662177241</v>
       </c>
       <c r="I60" t="n">
         <v>0.00863753163675529</v>
@@ -4195,57 +4195,57 @@
         <v>43861</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0364310245066837</v>
+        <v>0.0350761817458016</v>
       </c>
       <c r="C61" t="n">
-        <v>0.00447255961982695</v>
+        <v>0.00519512795899968</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.011633173352147</v>
+        <v>0.0223154331896849</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0263133984449769</v>
+        <v>-0.0135457579132715</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0238361066680788</v>
+        <v>0.0251656707241463</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00387011174740226</v>
+        <v>0.00412590356116849</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0018851019518995</v>
+        <v>0.00138861068872975</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0567429176679992</v>
+        <v>0.0595637419877391</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>43830</v>
+        <v>43829</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0197997636160716</v>
+        <v>0.0211346106076757</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0173982253897913</v>
+        <v>0.0138078463706042</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0320150806263395</v>
+        <v>0.0106013728939294</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0289421578877169</v>
+        <v>0.0340160007155252</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.00688412834791896</v>
+        <v>-0.00817198600700508</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00764557186469883</v>
+        <v>0.0073891129078445</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00109294655640713</v>
+        <v>0.00158950616454812</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0193843527668254</v>
+        <v>0.0166704960543897</v>
       </c>
     </row>
     <row r="63">
@@ -4256,22 +4256,22 @@
         <v>0.0276634439423979</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0119177265229755</v>
+        <v>0.0602173516769073</v>
       </c>
       <c r="D63" t="n">
+        <v>0.0117005129309908</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.0501853829668348</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.0348792316647135</v>
-      </c>
       <c r="F63" t="n">
-        <v>-0.0114760817584276</v>
+        <v>-0.0114761521953826</v>
       </c>
       <c r="G63" t="n">
-        <v>0.000340191240413512</v>
+        <v>0.000339962039290986</v>
       </c>
       <c r="H63" t="n">
-        <v>0.000894951071311656</v>
+        <v>0.00089495116756666</v>
       </c>
       <c r="I63" t="n">
         <v>-0.0200592612826171</v>
@@ -4285,22 +4285,22 @@
         <v>0.010862057215874</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.00792696446145424</v>
+        <v>-0.00330924138849131</v>
       </c>
       <c r="D64" t="n">
+        <v>0.00411198523061551</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.0464364775663622</v>
       </c>
-      <c r="E64" t="n">
-        <v>0.0256665135646497</v>
-      </c>
       <c r="F64" t="n">
-        <v>-0.0101426076955278</v>
+        <v>-0.0101425386801508</v>
       </c>
       <c r="G64" t="n">
-        <v>0.00226972052257324</v>
+        <v>0.00227006556742215</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00259185162652287</v>
+        <v>0.00259185190600753</v>
       </c>
       <c r="I64" t="n">
         <v>0.00673146876441866</v>
@@ -4314,22 +4314,22 @@
         <v>-0.00505866204213223</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0104533886069096</v>
+        <v>0.0286244697372187</v>
       </c>
       <c r="D65" t="n">
+        <v>0.011687800276112</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.00181416862731987</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.025403923389743</v>
-      </c>
       <c r="F65" t="n">
-        <v>-0.00453058890159797</v>
+        <v>-0.00453045103161565</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.00166174167128519</v>
+        <v>-0.00166174205232361</v>
       </c>
       <c r="H65" t="n">
-        <v>0.00135545073028909</v>
+        <v>0.00135512650294878</v>
       </c>
       <c r="I65" t="n">
         <v>-0.0321315714913825</v>
@@ -4343,22 +4343,22 @@
         <v>-0.0118154206520835</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0105639220593861</v>
+        <v>-0.0182288256203011</v>
       </c>
       <c r="D66" t="n">
+        <v>0.0105094123098455</v>
+      </c>
+      <c r="E66" t="n">
         <v>-0.0117812551170388</v>
       </c>
-      <c r="E66" t="n">
-        <v>-0.0477987840398751</v>
-      </c>
       <c r="F66" t="n">
-        <v>0.0204298587268297</v>
+        <v>0.0204296462529558</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00414648273108575</v>
+        <v>0.00414625247966383</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00227345556913283</v>
+        <v>0.00227356354679387</v>
       </c>
       <c r="I66" t="n">
         <v>0.0839419521919034</v>
@@ -4372,22 +4372,22 @@
         <v>0.0215876613498218</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0210113463065458</v>
+        <v>0.051597434890402</v>
       </c>
       <c r="D67" t="n">
+        <v>0.0126697745145135</v>
+      </c>
+      <c r="E67" t="n">
         <v>-0.00102343396352378</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.0162241849179174</v>
       </c>
       <c r="F67" t="n">
         <v>0.0160604291646842</v>
       </c>
       <c r="G67" t="n">
-        <v>0.00151943178923863</v>
+        <v>0.00151931631342395</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00158408672479182</v>
+        <v>0.00158430368682305</v>
       </c>
       <c r="I67" t="n">
         <v>0.0341078888825856</v>
@@ -4401,22 +4401,22 @@
         <v>0.0587368710987595</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0414295581540138</v>
+        <v>0.0391766358664489</v>
       </c>
       <c r="D68" t="n">
+        <v>0.045127140544194</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.0610832104227867</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.0549245375092604</v>
       </c>
       <c r="F68" t="n">
         <v>0.0201724841437305</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00698645714300317</v>
+        <v>0.00698657324918273</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0027800214545135</v>
+        <v>0.00278002175669201</v>
       </c>
       <c r="I68" t="n">
         <v>0.0627976972928299</v>
@@ -4430,22 +4430,22 @@
         <v>-0.0298044835701056</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.026693131410931</v>
+        <v>-0.0528301821720337</v>
       </c>
       <c r="D69" t="n">
+        <v>-0.00736064100392886</v>
+      </c>
+      <c r="E69" t="n">
         <v>-0.015633327447839</v>
       </c>
-      <c r="E69" t="n">
-        <v>-0.0635745510227335</v>
-      </c>
       <c r="F69" t="n">
-        <v>0.011727156095757</v>
+        <v>0.0117272312414807</v>
       </c>
       <c r="G69" t="n">
-        <v>0.00487667261540303</v>
+        <v>0.00487678985678119</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00228894056042983</v>
+        <v>0.00228883161513904</v>
       </c>
       <c r="I69" t="n">
         <v>0.0179565456035116</v>
@@ -4459,19 +4459,19 @@
         <v>0.0304667774084821</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0158661249829706</v>
+        <v>0.0376896621878415</v>
       </c>
       <c r="D70" t="n">
+        <v>0.00998295216071643</v>
+      </c>
+      <c r="E70" t="n">
         <v>-0.0262816062505844</v>
       </c>
-      <c r="E70" t="n">
-        <v>0.0315631812130355</v>
-      </c>
       <c r="F70" t="n">
-        <v>-0.000551704929318775</v>
+        <v>-0.000551704970273903</v>
       </c>
       <c r="G70" t="n">
-        <v>0.00472705409402741</v>
+        <v>0.00472705464815126</v>
       </c>
       <c r="H70" t="n">
         <v>0.00189432721312643</v>
